--- a/biology/Botanique/Spergularia_marina/Spergularia_marina.xlsx
+++ b/biology/Botanique/Spergularia_marina/Spergularia_marina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Spergulaire marine ou Spergulaire maritime, Spergularia marina (synonymes : Spergularia salina, Spergula marina ou Spergula salina), est une espèce de plantes halophiles de la famille des Caryophyllacées.
 </t>
@@ -511,14 +523,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 août 2014)[1], sous le nom Spergularia marina (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 août 2014), sous le nom Spergularia marina (Attention liste brute contenant possiblement des synonymes) :
 variété Spergularia marina var. leiosperma Gürke
 variété Spergularia marina var. marina
 variété Spergularia marina var. simonii O. Deg. &amp; I. Deg.
 variété Spergularia marina var. tenuis (Greene) R. Rossbach
-Selon Tropicos                                           (14 août 2014)[1], sous le nom Spergularia salina :
+Selon Tropicos                                           (14 août 2014), sous le nom Spergularia salina :
 variété Spergularia salina var. tenuis (Greene) Jeps.</t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu d'avril à août[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à août.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen.
 </t>
         </is>
       </c>
